--- a/data/templates/template.xlsx
+++ b/data/templates/template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="xx模块" sheetId="1" r:id="rId1"/>
+    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
     <sheet name="init" sheetId="3" r:id="rId2"/>
     <sheet name="关联参数填写示例" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Headers是否加密</t>
   </si>
   <si>
+    <t>params</t>
+  </si>
+  <si>
     <t>request_data_type</t>
   </si>
   <si>
@@ -84,6 +87,21 @@
     <t>报错日志</t>
   </si>
   <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -102,9 +120,6 @@
     <t>{"Content-Type": "application/json"}</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
   </si>
   <si>
@@ -117,7 +132,46 @@
     <t>PASS</t>
   </si>
   <si>
-    <t/>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
   <si>
     <t>id</t>
@@ -147,10 +201,10 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>https://xxxx.com</t>
-  </si>
-  <si>
-    <t>/api</t>
+    <t>https://bimdc.bzlrobot.com</t>
+  </si>
+  <si>
+    <t>/bsp/test/user/ugs</t>
   </si>
   <si>
     <t>{
@@ -162,13 +216,14 @@
 }</t>
   </si>
   <si>
-    <t>["xx模块"]</t>
+    <t>["安全纯净大屏"]</t>
   </si>
   <si>
     <t>{
-"{{username}}":"xxx",
- "{{pwd}}": "xxx",
-"{{projectId}}":"xxx"
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8=",
+"{{projectId}}":"104966",
+"{{tenant}}":"216317749963825419"
 }</t>
   </si>
   <si>
@@ -249,7 +304,7 @@
 如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
   </si>
   <si>
-    <t>替换方式依然是 {{key}}，{{fun()}}，{{key}}[1]</t>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
   </si>
   <si>
     <t>比如:
@@ -671,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -683,6 +738,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -803,7 +882,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -837,7 +916,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
@@ -855,31 +934,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
@@ -888,10 +967,10 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
@@ -952,7 +1031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -963,10 +1042,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,112 +1127,115 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+  <dxfs count="73">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1860,127 +1948,127 @@
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="自定义" pivot="0" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="31"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="黄色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="紫色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="34"/>
     </tableStyle>
     <tableStyle name="绿色标题行表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="35"/>
     </tableStyle>
     <tableStyle name="红色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="35"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="商务绿标题行表格样式" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="36"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="37"/>
     </tableStyle>
     <tableStyle name="藤萝紫线条表格样式" count="1">
-      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="38"/>
     </tableStyle>
     <tableStyle name="蓝色线条表格样式" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="蓝色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="单色渐变商务蓝表格样式" count="1">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
     </tableStyle>
     <tableStyle name="汇总蓝绿渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="41"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
     </tableStyle>
     <tableStyle name="汇总红蓝渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
     </tableStyle>
     <tableStyle name="汇总红黄渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="44"/>
     </tableStyle>
     <tableStyle name="深浅交替4" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="44"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="45"/>
     </tableStyle>
     <tableStyle name="商务深棕双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
     <tableStyle name="商务深紫双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
     <tableStyle name="商务深灰双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
     </tableStyle>
     <tableStyle name="商务深色系列12" count="1">
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
     </tableStyle>
     <tableStyle name="商务深色系列1" count="1">
-      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
     </tableStyle>
     <tableStyle name="商务首列填充05" count="1">
-      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="firstColumn" dxfId="51"/>
     </tableStyle>
     <tableStyle name="商务首列填充04" count="1">
-      <tableStyleElement type="firstColumn" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="52"/>
     </tableStyle>
     <tableStyle name="商务首列填充03" count="1">
-      <tableStyleElement type="firstColumn" dxfId="52"/>
+      <tableStyleElement type="firstColumn" dxfId="53"/>
     </tableStyle>
     <tableStyle name="商务隔行填充03" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="商务首列填充汇总01" count="1">
-      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式67" count="1">
-      <tableStyleElement type="firstColumn" dxfId="55"/>
+      <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式68" count="1">
-      <tableStyleElement type="firstColumn" dxfId="56"/>
+      <tableStyleElement type="firstColumn" dxfId="57"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式64" count="1">
-      <tableStyleElement type="firstColumn" dxfId="57"/>
+      <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
     <tableStyle name="首列填充系列2" count="1">
-      <tableStyleElement type="firstColumn" dxfId="58"/>
+      <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式3" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="59"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式6" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="60"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式10" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="62"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式10" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="62"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式1" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式5" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="64"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="65"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式8" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="65"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="66"/>
     </tableStyle>
     <tableStyle name="水彩85.xlsx" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="黑灰渐变行" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式9" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="68"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="69"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式7" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="69"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="渐变色镶边列表格样式2" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="70"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="表样式 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" size="2" dxfId="71"/>
+      <tableStyleElement type="firstColumnStripe" size="2" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1992,8 +2080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:V97">
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:W97">
+  <tableColumns count="23">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="name" dataDxfId="1"/>
     <tableColumn id="3" name="description" dataDxfId="2"/>
@@ -2002,20 +2090,21 @@
     <tableColumn id="6" name="Url" dataDxfId="5"/>
     <tableColumn id="7" name="Headers" dataDxfId="6"/>
     <tableColumn id="17" name="Headers是否加密" dataDxfId="7"/>
-    <tableColumn id="16" name="request_data_type" dataDxfId="8"/>
-    <tableColumn id="8" name="Request Data" dataDxfId="9"/>
-    <tableColumn id="9" name="请求参数是否加密" dataDxfId="10"/>
-    <tableColumn id="22" name="提取请求参数" dataDxfId="11"/>
-    <tableColumn id="10" name="Jsonpath" dataDxfId="12"/>
-    <tableColumn id="11" name="正则表达式" dataDxfId="13"/>
-    <tableColumn id="12" name="正则变量" dataDxfId="14"/>
-    <tableColumn id="13" name="绝对路径表达式" dataDxfId="15"/>
-    <tableColumn id="14" name="SQL" dataDxfId="16"/>
-    <tableColumn id="15" name="sql变量" dataDxfId="17"/>
-    <tableColumn id="18" name="预期结果" dataDxfId="18"/>
-    <tableColumn id="19" name="响应结果" dataDxfId="19"/>
-    <tableColumn id="20" name="断言结果" totalsRowFunction="count" dataDxfId="20"/>
-    <tableColumn id="21" name="报错日志" dataDxfId="21"/>
+    <tableColumn id="23" name="params" dataDxfId="8"/>
+    <tableColumn id="16" name="request_data_type" dataDxfId="9"/>
+    <tableColumn id="8" name="Request Data" dataDxfId="10"/>
+    <tableColumn id="9" name="请求参数是否加密" dataDxfId="11"/>
+    <tableColumn id="22" name="提取请求参数" dataDxfId="12"/>
+    <tableColumn id="10" name="Jsonpath" dataDxfId="13"/>
+    <tableColumn id="11" name="正则表达式" dataDxfId="14"/>
+    <tableColumn id="12" name="正则变量" dataDxfId="15"/>
+    <tableColumn id="13" name="绝对路径表达式" dataDxfId="16"/>
+    <tableColumn id="14" name="SQL" dataDxfId="17"/>
+    <tableColumn id="15" name="sql变量" dataDxfId="18"/>
+    <tableColumn id="18" name="预期结果" dataDxfId="19"/>
+    <tableColumn id="19" name="响应结果" dataDxfId="20"/>
+    <tableColumn id="20" name="断言结果" totalsRowFunction="count" dataDxfId="21"/>
+    <tableColumn id="21" name="报错日志" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2288,10 +2377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
@@ -2301,16 +2390,18 @@
     <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
     <col min="4" max="4" width="4.22222222222222" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" style="8" customWidth="1"/>
-    <col min="7" max="8" width="29.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5555555555556" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.1037037037037" style="3" customWidth="1"/>
-    <col min="12" max="22" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.44444444444444" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5555555555556" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.1037037037037" style="3" customWidth="1"/>
+    <col min="13" max="23" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="54" customHeight="1" spans="1:22">
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2417,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2335,10 +2426,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2377,213 +2468,284 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:22">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:23">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="T2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>33</v>
+      <c r="U2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="26" customHeight="1" spans="1:22">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:23">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
+      <c r="T3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:22">
+    <row r="4" ht="26" customHeight="1" spans="1:23">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:22">
+    <row r="5" ht="115.5" customHeight="1" spans="1:23">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="3"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:22">
+    <row r="6" ht="82.5" customHeight="1" spans="1:23">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="3"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="19:22">
-      <c r="S7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>33</v>
+    <row r="7" ht="16.5" customHeight="1" spans="5:23">
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:V2">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
-      <formula>"不通过"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>IF(FIND("TIME",$E2),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
-      <formula>IF(FIND("SQL",$E2),1,0)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="2">
-      <formula>LEN(TRIM(B2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V1 A2 A3:V1048576">
-    <cfRule type="containsBlanks" dxfId="25" priority="14">
+  <conditionalFormatting sqref="V$1:V$1048576">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>"通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A$1:W$1048576">
+    <cfRule type="containsBlanks" dxfId="25" priority="8">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D5 D8:D1048576">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+  <conditionalFormatting sqref="D1:D5 D8:D1048576">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1 U3:U1048576">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"通过"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 L1 I$1:I$1048576 J$1:J$1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8:D48 D49:D97">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8:E48 E49:E97">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 K2 H3:H20 K3:K16 K17:K18 K19:K97">
-      <formula1>"MD5,sha1,sha256"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 I3:I48 I49:I97">
-      <formula1>"json,data,params"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2600,46 +2762,46 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2647,25 +2809,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:8">
@@ -2673,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2684,7 +2846,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="28" priority="133">
+    <cfRule type="containsBlanks" dxfId="29" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2695,19 +2857,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12be7306-cd03-4744-a1d5-31471fb3ddea}</x14:id>
+          <x14:id>{d6f52754-f644-4ed5-9910-3461292923e0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="135">
+    <cfRule type="expression" dxfId="30" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="136">
+    <cfRule type="expression" dxfId="31" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="28" priority="73">
+    <cfRule type="containsBlanks" dxfId="29" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2718,19 +2880,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{002ea937-3ac3-40c2-aa35-9cddb02149fc}</x14:id>
+          <x14:id>{86e5f497-87fa-4267-9735-96be05ff1670}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="75">
+    <cfRule type="expression" dxfId="30" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="76">
+    <cfRule type="expression" dxfId="31" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="28" priority="85">
+    <cfRule type="containsBlanks" dxfId="29" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2741,19 +2903,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a75c37dd-1ff5-4dbf-b897-3c67734ebef5}</x14:id>
+          <x14:id>{9dfdc364-5fba-4496-bf41-24f584f4e6a1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="87">
+    <cfRule type="expression" dxfId="30" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="88">
+    <cfRule type="expression" dxfId="31" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="28" priority="69">
+    <cfRule type="containsBlanks" dxfId="29" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2764,22 +2926,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{976086a7-2464-4821-a0dc-3b93d0612d1f}</x14:id>
+          <x14:id>{49d8bd76-8f31-4c13-a0f2-7991f367e998}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="71">
+    <cfRule type="expression" dxfId="30" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="72">
+    <cfRule type="expression" dxfId="31" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="30" priority="60">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="59">
+    <cfRule type="expression" dxfId="30" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -2790,19 +2952,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{26b63de8-6ffa-4413-9e6d-a8f9b7496335}</x14:id>
+          <x14:id>{88fe6af9-3f79-4c0b-8f1f-4cf357c7b0ea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="28" priority="57">
+    <cfRule type="containsBlanks" dxfId="29" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="30" priority="68">
+    <cfRule type="expression" dxfId="31" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="67">
+    <cfRule type="expression" dxfId="30" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -2813,19 +2975,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81a566dc-188d-4f3a-a230-cb2e26a52e6a}</x14:id>
+          <x14:id>{6a699629-d97d-4aac-a0a0-47f8d928d06b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="28" priority="65">
+    <cfRule type="containsBlanks" dxfId="29" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="30" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="63">
+    <cfRule type="expression" dxfId="30" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -2836,16 +2998,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75b7e827-b0bb-41af-90cc-c93b64ca17c7}</x14:id>
+          <x14:id>{37f2df23-d1e7-4a39-8c88-2bc66776739d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="28" priority="61">
+    <cfRule type="containsBlanks" dxfId="29" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="28" priority="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -2856,14 +3018,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af2cdc6f-5086-4639-8af9-ad3babc9c163}</x14:id>
+          <x14:id>{ecede231-58bf-4e73-acdc-11343d5cf84b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2876,13 +3038,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cc456eb-094e-4028-a626-727980a4f921}</x14:id>
+          <x14:id>{edd8b7be-2050-4a35-8218-4de9d0e9b41b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="28" priority="142">
+    <cfRule type="containsBlanks" dxfId="29" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -2893,19 +3055,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fcd8fdc0-0e72-467c-94e2-ac9885da04cc}</x14:id>
+          <x14:id>{39c91cc0-f143-43ca-bd94-138bb9af478e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="144">
+    <cfRule type="expression" dxfId="30" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="145">
+    <cfRule type="expression" dxfId="31" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="28" priority="77">
+    <cfRule type="containsBlanks" dxfId="29" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -2916,19 +3078,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c94c0d9b-9075-46f0-a20e-7ea71e560029}</x14:id>
+          <x14:id>{cf36c132-c350-47bb-ab49-0b40cbf817fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="79">
+    <cfRule type="expression" dxfId="30" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="80">
+    <cfRule type="expression" dxfId="31" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xxxx.com" tooltip="https://xxxx.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://bimdc.bzlrobot.com" tooltip="https://bimdc.bzlrobot.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -2937,7 +3099,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12be7306-cd03-4744-a1d5-31471fb3ddea}">
+          <x14:cfRule type="dataBar" id="{d6f52754-f644-4ed5-9910-3461292923e0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2947,7 +3109,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{002ea937-3ac3-40c2-aa35-9cddb02149fc}">
+          <x14:cfRule type="dataBar" id="{86e5f497-87fa-4267-9735-96be05ff1670}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2957,7 +3119,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a75c37dd-1ff5-4dbf-b897-3c67734ebef5}">
+          <x14:cfRule type="dataBar" id="{9dfdc364-5fba-4496-bf41-24f584f4e6a1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2967,7 +3129,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{976086a7-2464-4821-a0dc-3b93d0612d1f}">
+          <x14:cfRule type="dataBar" id="{49d8bd76-8f31-4c13-a0f2-7991f367e998}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2977,7 +3139,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{26b63de8-6ffa-4413-9e6d-a8f9b7496335}">
+          <x14:cfRule type="dataBar" id="{88fe6af9-3f79-4c0b-8f1f-4cf357c7b0ea}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2987,7 +3149,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81a566dc-188d-4f3a-a230-cb2e26a52e6a}">
+          <x14:cfRule type="dataBar" id="{6a699629-d97d-4aac-a0a0-47f8d928d06b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -2997,7 +3159,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75b7e827-b0bb-41af-90cc-c93b64ca17c7}">
+          <x14:cfRule type="dataBar" id="{37f2df23-d1e7-4a39-8c88-2bc66776739d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3007,7 +3169,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{af2cdc6f-5086-4639-8af9-ad3babc9c163}">
+          <x14:cfRule type="dataBar" id="{ecede231-58bf-4e73-acdc-11343d5cf84b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3017,7 +3179,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8cc456eb-094e-4028-a626-727980a4f921}">
+          <x14:cfRule type="dataBar" id="{edd8b7be-2050-4a35-8218-4de9d0e9b41b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3027,7 +3189,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fcd8fdc0-0e72-467c-94e2-ac9885da04cc}">
+          <x14:cfRule type="dataBar" id="{39c91cc0-f143-43ca-bd94-138bb9af478e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3037,7 +3199,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c94c0d9b-9075-46f0-a20e-7ea71e560029}">
+          <x14:cfRule type="dataBar" id="{cf36c132-c350-47bb-ab49-0b40cbf817fa}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3057,7 +3219,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3073,83 +3235,73 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:8">
+    <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" ht="181.5" customHeight="1" spans="1:8">
+    <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:6">
+    <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3157,7 +3309,7 @@
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3165,13 +3317,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="25" priority="5">
@@ -3179,13 +3331,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="25" priority="1">
